--- a/data/trans_orig/CONS_HIP-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_HIP-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos en País Vasco</t>
+          <t>Consumo de hipnóticos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3189,7 +3189,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos en Andalucia</t>
+          <t>Consumo de hipnóticos en Andalucia (tasa de respuesta: 99,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5832,7 +5832,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos en C.Valenciana</t>
+          <t>Consumo de hipnóticos en C.Valenciana (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8475,7 +8475,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos en Barcelona</t>
+          <t>Consumo de hipnóticos en Barcelona (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_HIP-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_HIP-Clase-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6839</t>
+          <t>6660</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4868</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9884</t>
+          <t>9167</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7692</t>
+          <t>9498</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5620</t>
+          <t>7198</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10322</t>
+          <t>12959</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>14531</t>
+          <t>16158</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>11705</t>
+          <t>12670</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>18426</t>
+          <t>19742</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>5,96%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>138971</t>
+          <t>156141</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>135926</t>
+          <t>153634</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>140942</t>
+          <t>158113</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>94,37%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>97,12%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>135199</t>
+          <t>159069</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>132569</t>
+          <t>155608</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>137271</t>
+          <t>161369</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>94,37%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>92,78%</t>
+          <t>92,31%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>96,07%</t>
+          <t>95,73%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>274170</t>
+          <t>315210</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>270275</t>
+          <t>311626</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>276996</t>
+          <t>318698</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>94,97%</t>
+          <t>95,12%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,62%</t>
+          <t>94,04%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,95%</t>
+          <t>96,18%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4123</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2784</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6232</t>
+          <t>6452</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,32 +1114,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7544</t>
+          <t>8723</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5609</t>
+          <t>6515</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9947</t>
+          <t>11797</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>11667</t>
+          <t>13174</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>9201</t>
+          <t>10393</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>14595</t>
+          <t>16592</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>7,79%</t>
         </is>
       </c>
     </row>
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>77049</t>
+          <t>85974</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>74940</t>
+          <t>83973</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>78563</t>
+          <t>87641</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,92%</t>
+          <t>95,08%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,32%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>96,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>101573</t>
+          <t>113945</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>99170</t>
+          <t>110871</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>103508</t>
+          <t>116153</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,09%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>90,38%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>94,86%</t>
+          <t>94,69%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>178622</t>
+          <t>199919</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>175694</t>
+          <t>196501</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>181088</t>
+          <t>202700</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>93,82%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,33%</t>
+          <t>92,21%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>95,12%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,32 +1422,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11987</t>
+          <t>11223</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9224</t>
+          <t>9017</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15281</t>
+          <t>14112</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,32 +1457,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6888</t>
+          <t>6530</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4910</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9177</t>
+          <t>8598</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>18875</t>
+          <t>17752</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>15904</t>
+          <t>14722</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>22966</t>
+          <t>21746</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>10,09%</t>
         </is>
       </c>
     </row>
@@ -1535,32 +1535,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>151869</t>
+          <t>142661</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>148575</t>
+          <t>139772</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>154632</t>
+          <t>144867</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>92,71%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,67%</t>
+          <t>90,83%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>94,37%</t>
+          <t>94,14%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,32 +1570,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>56257</t>
+          <t>55087</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>53968</t>
+          <t>53019</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>58235</t>
+          <t>56954</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>89,09%</t>
+          <t>89,4%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>85,47%</t>
+          <t>86,05%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>92,22%</t>
+          <t>92,43%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>208126</t>
+          <t>197749</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>204035</t>
+          <t>193755</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>211097</t>
+          <t>200779</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>91,69%</t>
+          <t>91,76%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>89,88%</t>
+          <t>89,91%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>92,99%</t>
+          <t>93,17%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1765,32 +1765,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12177</t>
+          <t>12239</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9659</t>
+          <t>9590</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15154</t>
+          <t>15360</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,32 +1800,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17714</t>
+          <t>18230</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14452</t>
+          <t>15101</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>21311</t>
+          <t>21807</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>29891</t>
+          <t>30469</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>25781</t>
+          <t>26514</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>34731</t>
+          <t>35857</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>10,19%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +1878,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>157912</t>
+          <t>157480</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>154935</t>
+          <t>154359</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>160430</t>
+          <t>160129</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>92,84%</t>
+          <t>92,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,09%</t>
+          <t>90,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,32%</t>
+          <t>94,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,32 +1913,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>159469</t>
+          <t>163960</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>155872</t>
+          <t>160383</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>162731</t>
+          <t>167089</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>90,0%</t>
+          <t>89,99%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>87,97%</t>
+          <t>88,03%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>91,84%</t>
+          <t>91,71%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>317380</t>
+          <t>321440</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>312540</t>
+          <t>316052</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>321490</t>
+          <t>325395</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>91,39%</t>
+          <t>91,34%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>90,0%</t>
+          <t>89,81%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>92,58%</t>
+          <t>92,47%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2108,32 +2108,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4745</t>
+          <t>4544</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3102</t>
+          <t>3020</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6984</t>
+          <t>6652</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2143,32 +2143,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>20515</t>
+          <t>19044</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17305</t>
+          <t>15975</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>24328</t>
+          <t>22604</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2178,32 +2178,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>25260</t>
+          <t>23588</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>21648</t>
+          <t>19884</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>29986</t>
+          <t>27528</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>13,77%</t>
         </is>
       </c>
     </row>
@@ -2221,32 +2221,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>72106</t>
+          <t>69907</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>69867</t>
+          <t>67799</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>73749</t>
+          <t>71431</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,83%</t>
+          <t>93,9%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,91%</t>
+          <t>91,07%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>95,94%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>112417</t>
+          <t>106372</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>108604</t>
+          <t>102812</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>115627</t>
+          <t>109441</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>84,57%</t>
+          <t>84,82%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>81,7%</t>
+          <t>81,98%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>86,98%</t>
+          <t>87,26%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2291,32 +2291,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>184523</t>
+          <t>176279</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>179797</t>
+          <t>172339</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>188135</t>
+          <t>179983</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>87,96%</t>
+          <t>88,2%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>85,71%</t>
+          <t>86,23%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>89,68%</t>
+          <t>90,05%</t>
         </is>
       </c>
     </row>
@@ -2334,17 +2334,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2369,17 +2369,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2404,17 +2404,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>332</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -2461,12 +2461,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1274</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2486,32 +2486,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19909</t>
+          <t>18620</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>16774</t>
+          <t>15477</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>23907</t>
+          <t>22136</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>18,06%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2521,32 +2521,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>20096</t>
+          <t>18952</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>16753</t>
+          <t>15491</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>24295</t>
+          <t>22514</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>12,63%</t>
         </is>
       </c>
     </row>
@@ -2564,27 +2564,27 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>45073</t>
+          <t>55271</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>43987</t>
+          <t>53626</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>99,59%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>97,19%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -2599,32 +2599,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>98368</t>
+          <t>103981</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>94370</t>
+          <t>100465</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>101503</t>
+          <t>107124</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>83,17%</t>
+          <t>84,81%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>79,79%</t>
+          <t>81,94%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>85,82%</t>
+          <t>87,38%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2634,32 +2634,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>143442</t>
+          <t>159252</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>139243</t>
+          <t>155690</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>146785</t>
+          <t>162713</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>87,71%</t>
+          <t>89,37%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>85,14%</t>
+          <t>87,37%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>89,76%</t>
+          <t>91,31%</t>
         </is>
       </c>
     </row>
@@ -2677,17 +2677,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2712,17 +2712,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2747,17 +2747,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2794,32 +2794,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>40059</t>
+          <t>39448</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>34601</t>
+          <t>34470</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>46222</t>
+          <t>45021</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2829,32 +2829,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>80261</t>
+          <t>80645</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>73270</t>
+          <t>73985</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>87136</t>
+          <t>88033</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2864,32 +2864,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>120320</t>
+          <t>120093</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>110791</t>
+          <t>111579</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>128638</t>
+          <t>129054</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>8,66%</t>
         </is>
       </c>
     </row>
@@ -2907,32 +2907,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>642980</t>
+          <t>667435</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>636817</t>
+          <t>661862</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>648438</t>
+          <t>672413</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>94,42%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>94,93%</t>
+          <t>95,12%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2942,32 +2942,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>663283</t>
+          <t>702414</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>656408</t>
+          <t>695026</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>670274</t>
+          <t>709074</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>89,21%</t>
+          <t>89,7%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>88,28%</t>
+          <t>88,76%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>90,15%</t>
+          <t>90,55%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2977,32 +2977,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1306263</t>
+          <t>1369848</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1297945</t>
+          <t>1360887</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1315792</t>
+          <t>1378362</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>91,57%</t>
+          <t>91,94%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>90,98%</t>
+          <t>91,34%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>92,23%</t>
+          <t>92,51%</t>
         </is>
       </c>
     </row>
@@ -3020,17 +3020,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3055,17 +3055,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3090,17 +3090,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13339</t>
+          <t>14005</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31432</t>
+          <t>31546</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3399,12 +3399,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3419,12 +3419,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12500</t>
+          <t>11624</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>27474</t>
+          <t>26523</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3454,12 +3454,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>29771</t>
+          <t>28645</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>53109</t>
+          <t>51218</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3469,12 +3469,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>7,7%</t>
         </is>
       </c>
     </row>
@@ -3497,12 +3497,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>335251</t>
+          <t>335137</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>353344</t>
+          <t>352678</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3512,12 +3512,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>91,43%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>96,36%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3532,12 +3532,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>271427</t>
+          <t>272378</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>286401</t>
+          <t>287277</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3547,12 +3547,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>90,81%</t>
+          <t>91,13%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>95,82%</t>
+          <t>96,11%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3567,12 +3567,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>612475</t>
+          <t>614366</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>635813</t>
+          <t>636939</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3582,12 +3582,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>92,3%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,53%</t>
+          <t>95,7%</t>
         </is>
       </c>
     </row>
@@ -3727,12 +3727,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10442</t>
+          <t>10318</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26418</t>
+          <t>26131</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3742,12 +3742,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16669</t>
+          <t>16961</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31657</t>
+          <t>31885</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3797,12 +3797,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>30352</t>
+          <t>30026</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>51140</t>
+          <t>50834</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>8,7%</t>
         </is>
       </c>
     </row>
@@ -3840,12 +3840,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>297629</t>
+          <t>297916</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>313605</t>
+          <t>313729</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,85%</t>
+          <t>91,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>228424</t>
+          <t>228196</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>243412</t>
+          <t>243120</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>87,83%</t>
+          <t>87,74%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>93,59%</t>
+          <t>93,48%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3910,12 +3910,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>532988</t>
+          <t>533294</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>553776</t>
+          <t>554102</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3925,12 +3925,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>91,25%</t>
+          <t>91,3%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>94,86%</t>
         </is>
       </c>
     </row>
@@ -4070,12 +4070,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3563</t>
+          <t>3979</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33455</t>
+          <t>34083</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4085,12 +4085,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4105,12 +4105,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10196</t>
+          <t>10210</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>21388</t>
+          <t>20969</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4120,12 +4120,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>21,49%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>9468</t>
+          <t>8881</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>57780</t>
+          <t>54971</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4155,12 +4155,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>9,59%</t>
         </is>
       </c>
     </row>
@@ -4183,12 +4183,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>441969</t>
+          <t>441341</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>471861</t>
+          <t>471445</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,96%</t>
+          <t>92,83%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,25%</t>
+          <t>99,16%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>76176</t>
+          <t>76595</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>87368</t>
+          <t>87354</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>78,08%</t>
+          <t>78,51%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>89,55%</t>
+          <t>89,53%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>515208</t>
+          <t>518017</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>563520</t>
+          <t>564107</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4268,12 +4268,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>89,92%</t>
+          <t>90,41%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,35%</t>
+          <t>98,45%</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22241</t>
+          <t>21687</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>42549</t>
+          <t>41386</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11985</t>
+          <t>12991</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>53680</t>
+          <t>53848</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>36420</t>
+          <t>36822</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>84890</t>
+          <t>84997</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>7,25%</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>493606</t>
+          <t>494769</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>513914</t>
+          <t>514468</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,06%</t>
+          <t>92,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,85%</t>
+          <t>95,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>582628</t>
+          <t>582460</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>624323</t>
+          <t>623317</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,56%</t>
+          <t>91,54%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1087572</t>
+          <t>1087465</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1136042</t>
+          <t>1135640</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4611,12 +4611,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,76%</t>
+          <t>92,75%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,89%</t>
+          <t>96,86%</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2528</t>
+          <t>2426</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13536</t>
+          <t>12815</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>34203</t>
+          <t>33262</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>77857</t>
+          <t>76271</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>18,37%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>43978</t>
+          <t>42299</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>84858</t>
+          <t>85245</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4841,12 +4841,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>13,43%</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>197196</t>
+          <t>197917</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>208204</t>
+          <t>208306</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>93,58%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,8%</t>
+          <t>98,85%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>345932</t>
+          <t>347518</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>389586</t>
+          <t>390527</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>81,63%</t>
+          <t>82,0%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>91,93%</t>
+          <t>92,15%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>549663</t>
+          <t>549276</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>590543</t>
+          <t>592222</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4954,12 +4954,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>86,63%</t>
+          <t>86,57%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,07%</t>
+          <t>93,33%</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1073</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>20846</t>
+          <t>20629</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>49118</t>
+          <t>48803</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>74175</t>
+          <t>72790</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5169,12 +5169,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>52955</t>
+          <t>54069</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>84801</t>
+          <t>85599</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>13,03%</t>
         </is>
       </c>
     </row>
@@ -5212,12 +5212,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>145915</t>
+          <t>146132</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>165688</t>
+          <t>165599</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>87,5%</t>
+          <t>87,63%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,36%</t>
+          <t>99,3%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>415793</t>
+          <t>417178</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>440850</t>
+          <t>441165</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>84,86%</t>
+          <t>85,14%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>89,98%</t>
+          <t>90,04%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5282,12 +5282,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>571928</t>
+          <t>571130</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>603774</t>
+          <t>602660</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>87,09%</t>
+          <t>86,97%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>91,94%</t>
+          <t>91,77%</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5442,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>64164</t>
+          <t>62509</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>117559</t>
+          <t>119083</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>148416</t>
+          <t>147021</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>244069</t>
+          <t>245066</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>242654</t>
+          <t>249687</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>350887</t>
+          <t>356712</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>8,32%</t>
         </is>
       </c>
     </row>
@@ -5555,12 +5555,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1962243</t>
+          <t>1960719</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2015638</t>
+          <t>2017293</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>94,35%</t>
+          <t>94,27%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>96,99%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1962541</t>
+          <t>1961544</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2058194</t>
+          <t>2059589</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>88,94%</t>
+          <t>88,89%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>93,27%</t>
+          <t>93,34%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3935526</t>
+          <t>3929701</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4043759</t>
+          <t>4036726</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>91,81%</t>
+          <t>91,68%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>94,34%</t>
+          <t>94,17%</t>
         </is>
       </c>
     </row>
@@ -8670,12 +8670,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8594</t>
+          <t>8588</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17038</t>
+          <t>16610</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -8705,12 +8705,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17500</t>
+          <t>17771</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>29319</t>
+          <t>29049</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -8720,12 +8720,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -8740,12 +8740,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>28425</t>
+          <t>28951</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>42784</t>
+          <t>42835</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -8755,12 +8755,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>10,32%</t>
         </is>
       </c>
     </row>
@@ -8783,12 +8783,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>187665</t>
+          <t>188093</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>196109</t>
+          <t>196115</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -8798,7 +8798,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>91,68%</t>
+          <t>91,89%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -8818,12 +8818,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>181077</t>
+          <t>181347</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>192896</t>
+          <t>192625</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -8833,12 +8833,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>86,06%</t>
+          <t>86,19%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>91,68%</t>
+          <t>91,55%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -8853,12 +8853,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>372315</t>
+          <t>372264</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>386674</t>
+          <t>386148</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -8868,12 +8868,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>89,69%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>93,15%</t>
+          <t>93,03%</t>
         </is>
       </c>
     </row>
@@ -9013,12 +9013,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6680</t>
+          <t>6033</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15792</t>
+          <t>14456</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -9028,12 +9028,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -9048,12 +9048,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15912</t>
+          <t>15772</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27058</t>
+          <t>27712</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -9063,12 +9063,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -9083,12 +9083,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>24648</t>
+          <t>24546</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>38960</t>
+          <t>38174</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -9098,12 +9098,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>13,02%</t>
         </is>
       </c>
     </row>
@@ -9126,12 +9126,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>109156</t>
+          <t>110492</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>118268</t>
+          <t>118915</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -9141,12 +9141,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>87,36%</t>
+          <t>88,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>95,17%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -9161,12 +9161,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>141225</t>
+          <t>140571</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>152371</t>
+          <t>152511</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -9176,12 +9176,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>83,92%</t>
+          <t>83,53%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>90,54%</t>
+          <t>90,63%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -9196,12 +9196,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>254271</t>
+          <t>255057</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>268583</t>
+          <t>268685</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -9211,12 +9211,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>86,71%</t>
+          <t>86,98%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>91,59%</t>
+          <t>91,63%</t>
         </is>
       </c>
     </row>
@@ -9356,12 +9356,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7510</t>
+          <t>7693</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20511</t>
+          <t>20732</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -9371,12 +9371,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>21,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -9391,12 +9391,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10644</t>
+          <t>10345</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>22435</t>
+          <t>22410</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -9406,12 +9406,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>39,08%</t>
+          <t>39,04%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -9426,12 +9426,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>20540</t>
+          <t>20289</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>38314</t>
+          <t>36610</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -9441,12 +9441,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>24,95%</t>
+          <t>23,84%</t>
         </is>
       </c>
     </row>
@@ -9469,12 +9469,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75642</t>
+          <t>75421</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>88643</t>
+          <t>88460</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -9484,12 +9484,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>78,67%</t>
+          <t>78,44%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -9504,12 +9504,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>34969</t>
+          <t>34994</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>46760</t>
+          <t>47059</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -9519,12 +9519,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>60,92%</t>
+          <t>60,96%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>81,46%</t>
+          <t>81,98%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -9539,12 +9539,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>115243</t>
+          <t>116947</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>133017</t>
+          <t>133268</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -9554,12 +9554,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>75,05%</t>
+          <t>76,16%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>86,62%</t>
+          <t>86,79%</t>
         </is>
       </c>
     </row>
@@ -9699,12 +9699,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9812</t>
+          <t>10196</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21617</t>
+          <t>21599</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -9714,12 +9714,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -9734,12 +9734,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17681</t>
+          <t>17062</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>34783</t>
+          <t>32811</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -9749,12 +9749,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -9769,12 +9769,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>30629</t>
+          <t>30516</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>50615</t>
+          <t>50277</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -9784,12 +9784,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>15,63%</t>
         </is>
       </c>
     </row>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>141168</t>
+          <t>141186</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>152973</t>
+          <t>152589</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -9827,12 +9827,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>86,72%</t>
+          <t>86,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>93,97%</t>
+          <t>93,74%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -9847,12 +9847,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>124125</t>
+          <t>126097</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>141227</t>
+          <t>141846</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -9862,12 +9862,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>78,11%</t>
+          <t>79,35%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>88,87%</t>
+          <t>89,26%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -9882,12 +9882,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>271079</t>
+          <t>271417</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>291065</t>
+          <t>291178</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -9897,12 +9897,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>84,27%</t>
+          <t>84,37%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>90,48%</t>
+          <t>90,51%</t>
         </is>
       </c>
     </row>
@@ -10042,12 +10042,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>558</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5041</t>
+          <t>5414</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -10057,12 +10057,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -10077,12 +10077,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>11584</t>
+          <t>12155</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>25997</t>
+          <t>26027</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -10092,12 +10092,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>27,55%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -10112,12 +10112,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>13274</t>
+          <t>14019</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>29017</t>
+          <t>29133</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -10127,12 +10127,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>19,67%</t>
         </is>
       </c>
     </row>
@@ -10155,12 +10155,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>48668</t>
+          <t>48295</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>53260</t>
+          <t>53151</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -10170,12 +10170,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,61%</t>
+          <t>89,92%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>98,96%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -10190,12 +10190,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>68371</t>
+          <t>68341</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>82784</t>
+          <t>82213</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -10205,12 +10205,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>72,45%</t>
+          <t>72,42%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>87,72%</t>
+          <t>87,12%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -10225,12 +10225,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>119060</t>
+          <t>118944</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>134803</t>
+          <t>134058</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -10240,12 +10240,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>80,4%</t>
+          <t>80,33%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>91,04%</t>
+          <t>90,53%</t>
         </is>
       </c>
     </row>
@@ -10385,12 +10385,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1780</t>
+          <t>1662</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11030</t>
+          <t>10030</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -10400,12 +10400,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>27,44%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -10420,12 +10420,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>5568</t>
+          <t>5649</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>14085</t>
+          <t>13704</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -10435,47 +10435,47 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
+          <t>9,07%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>21,99%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>13836</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>8836</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>20478</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>14,0%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
           <t>8,94%</t>
         </is>
       </c>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>22,61%</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>13836</t>
-        </is>
-      </c>
-      <c r="S19" s="2" t="inlineStr">
-        <is>
-          <t>9258</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>20541</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="inlineStr">
-        <is>
-          <t>14,0%</t>
-        </is>
-      </c>
-      <c r="V19" s="2" t="inlineStr">
-        <is>
-          <t>9,37%</t>
-        </is>
-      </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>20,71%</t>
         </is>
       </c>
     </row>
@@ -10498,12 +10498,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>25517</t>
+          <t>26517</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>34767</t>
+          <t>34885</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -10513,12 +10513,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>69,82%</t>
+          <t>72,56%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>95,45%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -10533,12 +10533,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>48225</t>
+          <t>48606</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>56742</t>
+          <t>56661</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -10548,47 +10548,47 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>77,39%</t>
+          <t>78,01%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
+          <t>90,93%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>85022</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>78380</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>90022</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>86,0%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>79,29%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
           <t>91,06%</t>
-        </is>
-      </c>
-      <c r="Q20" s="2" t="inlineStr">
-        <is>
-          <t>212</t>
-        </is>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>85022</t>
-        </is>
-      </c>
-      <c r="S20" s="2" t="inlineStr">
-        <is>
-          <t>78317</t>
-        </is>
-      </c>
-      <c r="T20" s="2" t="inlineStr">
-        <is>
-          <t>89600</t>
-        </is>
-      </c>
-      <c r="U20" s="2" t="inlineStr">
-        <is>
-          <t>86,0%</t>
-        </is>
-      </c>
-      <c r="V20" s="2" t="inlineStr">
-        <is>
-          <t>79,22%</t>
-        </is>
-      </c>
-      <c r="W20" s="2" t="inlineStr">
-        <is>
-          <t>90,63%</t>
         </is>
       </c>
     </row>
@@ -10728,12 +10728,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>46466</t>
+          <t>45895</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>68866</t>
+          <t>69052</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -10743,12 +10743,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -10763,12 +10763,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>96663</t>
+          <t>95159</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>126743</t>
+          <t>126144</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -10778,12 +10778,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -10798,12 +10798,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>149267</t>
+          <t>148097</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>185547</t>
+          <t>187208</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -10813,12 +10813,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>13,09%</t>
         </is>
       </c>
     </row>
@@ -10841,12 +10841,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>609980</t>
+          <t>609794</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>632380</t>
+          <t>632951</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -10856,12 +10856,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>89,86%</t>
+          <t>89,83%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>93,16%</t>
+          <t>93,24%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -10876,12 +10876,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>624927</t>
+          <t>625526</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>655007</t>
+          <t>656511</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -10891,12 +10891,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>83,14%</t>
+          <t>83,22%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>87,14%</t>
+          <t>87,34%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -10911,12 +10911,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1244969</t>
+          <t>1243308</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1281249</t>
+          <t>1282419</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -10926,12 +10926,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>87,03%</t>
+          <t>86,91%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>89,57%</t>
+          <t>89,65%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_HIP-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_HIP-Clase-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de hipnóticos en Andalucia (tasa de respuesta: 99,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6660</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>14608</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9167</t>
+          <t>33435</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9498</t>
+          <t>19500</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7198</t>
+          <t>12901</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12959</t>
+          <t>28920</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>53</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>16158</t>
+          <t>41997</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>12670</t>
+          <t>30655</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>19742</t>
+          <t>55393</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>7,66%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>374</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>156141</t>
+          <t>372890</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>153634</t>
+          <t>361952</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>158113</t>
+          <t>380779</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,91%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,37%</t>
+          <t>91,54%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,12%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>427</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>159069</t>
+          <t>308126</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>155608</t>
+          <t>298706</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>161369</t>
+          <t>314725</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>94,37%</t>
+          <t>94,05%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>92,31%</t>
+          <t>91,17%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>95,73%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1646</t>
+          <t>801</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>315210</t>
+          <t>681016</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>311626</t>
+          <t>667620</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>318698</t>
+          <t>692358</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>94,04%</t>
+          <t>92,34%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>95,76%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>854</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1074,107 +1074,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4451</t>
+          <t>16710</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2784</t>
+          <t>10466</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6452</t>
+          <t>26859</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8723</t>
+          <t>25047</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6515</t>
+          <t>18366</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11797</t>
+          <t>34107</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>58</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>13174</t>
+          <t>41757</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>10393</t>
+          <t>31874</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>16592</t>
+          <t>53580</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>8,49%</t>
         </is>
       </c>
     </row>
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>314</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>85974</t>
+          <t>327637</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>83973</t>
+          <t>317488</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>87641</t>
+          <t>333881</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,08%</t>
+          <t>95,15%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>92,2%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,92%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>355</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>113945</t>
+          <t>261893</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>110871</t>
+          <t>252833</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>116153</t>
+          <t>268574</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>92,89%</t>
+          <t>91,27%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>90,38%</t>
+          <t>88,11%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>93,6%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1090</t>
+          <t>669</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>199919</t>
+          <t>589530</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>196501</t>
+          <t>577707</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>202700</t>
+          <t>599413</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>93,82%</t>
+          <t>93,39%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,21%</t>
+          <t>91,51%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>94,95%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1417,107 +1417,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11223</t>
+          <t>16161</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9017</t>
+          <t>9836</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14112</t>
+          <t>24994</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6530</t>
+          <t>16660</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4663</t>
+          <t>11331</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8598</t>
+          <t>23312</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>20,91%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>47</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>17752</t>
+          <t>32821</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>14722</t>
+          <t>24641</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>21746</t>
+          <t>43562</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>11,71%</t>
         </is>
       </c>
     </row>
@@ -1530,107 +1530,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>242</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>142661</t>
+          <t>244395</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>139772</t>
+          <t>235562</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>144867</t>
+          <t>250720</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,71%</t>
+          <t>93,8%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,83%</t>
+          <t>90,41%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>135</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>55087</t>
+          <t>94826</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>53019</t>
+          <t>88174</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>56954</t>
+          <t>100155</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>89,4%</t>
+          <t>85,06%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>86,05%</t>
+          <t>79,09%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>92,43%</t>
+          <t>89,84%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1176</t>
+          <t>377</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>197749</t>
+          <t>339222</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>193755</t>
+          <t>328481</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>200779</t>
+          <t>347402</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>91,76%</t>
+          <t>91,18%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>89,91%</t>
+          <t>88,29%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>93,17%</t>
+          <t>93,38%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1760,107 +1760,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12239</t>
+          <t>34636</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9590</t>
+          <t>24616</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15360</t>
+          <t>46690</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18230</t>
+          <t>37318</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15101</t>
+          <t>28786</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>21807</t>
+          <t>48612</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>99</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>30469</t>
+          <t>71954</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>26514</t>
+          <t>58802</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>35857</t>
+          <t>88090</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>8,01%</t>
         </is>
       </c>
     </row>
@@ -1873,107 +1873,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>523</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>157480</t>
+          <t>575346</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>154359</t>
+          <t>563292</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>160129</t>
+          <t>585366</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>92,79%</t>
+          <t>94,32%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,95%</t>
+          <t>92,35%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,35%</t>
+          <t>95,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>610</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>163960</t>
+          <t>452504</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>160383</t>
+          <t>441210</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>167089</t>
+          <t>461036</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>89,99%</t>
+          <t>92,38%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>88,03%</t>
+          <t>90,08%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>91,71%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1855</t>
+          <t>1133</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>321440</t>
+          <t>1027849</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>316052</t>
+          <t>1011713</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>325395</t>
+          <t>1041001</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>91,34%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>89,81%</t>
+          <t>91,99%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>92,47%</t>
+          <t>94,65%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>669</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>489822</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>489822</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>489822</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1099803</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1099803</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1099803</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2103,107 +2103,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4544</t>
+          <t>7926</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3020</t>
+          <t>3252</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6652</t>
+          <t>15129</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>19044</t>
+          <t>60876</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>15975</t>
+          <t>49533</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>22604</t>
+          <t>74235</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>103</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>23588</t>
+          <t>68802</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>19884</t>
+          <t>56302</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>27528</t>
+          <t>84288</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>12,77%</t>
         </is>
       </c>
     </row>
@@ -2216,107 +2216,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>69907</t>
+          <t>244920</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>67799</t>
+          <t>237717</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>71431</t>
+          <t>249594</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,9%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,07%</t>
+          <t>94,02%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>98,71%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>489</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>106372</t>
+          <t>346435</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>102812</t>
+          <t>333076</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>109441</t>
+          <t>357778</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>84,82%</t>
+          <t>85,05%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>81,98%</t>
+          <t>81,77%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>87,26%</t>
+          <t>87,84%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>712</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>176279</t>
+          <t>591355</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>172339</t>
+          <t>575869</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>179983</t>
+          <t>603855</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>88,2%</t>
+          <t>89,58%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>86,23%</t>
+          <t>87,23%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>90,05%</t>
+          <t>91,47%</t>
         </is>
       </c>
     </row>
@@ -2329,22 +2329,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>252846</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>252846</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>252846</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2364,22 +2364,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>584</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>407311</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>407311</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>407311</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2399,22 +2399,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>815</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>660157</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>660157</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>660157</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2446,107 +2446,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>5350</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1088</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>18496</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>18620</t>
+          <t>66514</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>15477</t>
+          <t>53746</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>22136</t>
+          <t>79868</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>104</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>18952</t>
+          <t>71864</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>15491</t>
+          <t>59060</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>22514</t>
+          <t>91662</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>12,8%</t>
         </is>
       </c>
     </row>
@@ -2559,107 +2559,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>55271</t>
+          <t>164147</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>53626</t>
+          <t>151001</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>168409</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,44%</t>
+          <t>89,09%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,36%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>598</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>103981</t>
+          <t>480360</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>100465</t>
+          <t>467006</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>107124</t>
+          <t>493128</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>84,81%</t>
+          <t>87,84%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>81,94%</t>
+          <t>85,4%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>87,38%</t>
+          <t>90,17%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>672</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>159252</t>
+          <t>644507</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>155690</t>
+          <t>624709</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>162713</t>
+          <t>657311</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>89,37%</t>
+          <t>89,97%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>87,37%</t>
+          <t>87,2%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>91,31%</t>
+          <t>91,76%</t>
         </is>
       </c>
     </row>
@@ -2672,22 +2672,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2707,22 +2707,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2742,22 +2742,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>776</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2789,107 +2789,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>39448</t>
+          <t>103281</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>34470</t>
+          <t>86400</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>45021</t>
+          <t>126919</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>80645</t>
+          <t>225914</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>73985</t>
+          <t>203366</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>88033</t>
+          <t>251509</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>464</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>120093</t>
+          <t>329195</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>111579</t>
+          <t>298496</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>129054</t>
+          <t>364329</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>8,67%</t>
         </is>
       </c>
     </row>
@@ -2902,107 +2902,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3757</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>667435</t>
+          <t>1929334</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>661862</t>
+          <t>1905696</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>672413</t>
+          <t>1946215</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>94,42%</t>
+          <t>94,92%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>95,75%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>3902</t>
+          <t>2614</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>702414</t>
+          <t>1944146</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>695026</t>
+          <t>1918551</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>709074</t>
+          <t>1966694</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>89,7%</t>
+          <t>89,59%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>88,76%</t>
+          <t>88,41%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>90,55%</t>
+          <t>90,63%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>7659</t>
+          <t>4364</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1369848</t>
+          <t>3873479</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1360887</t>
+          <t>3838345</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1378362</t>
+          <t>3904178</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>91,94%</t>
+          <t>92,17%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>91,34%</t>
+          <t>91,33%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>92,51%</t>
+          <t>92,9%</t>
         </is>
       </c>
     </row>
@@ -3015,22 +3015,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>1866</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2032615</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2032615</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2032615</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3050,22 +3050,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>2962</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170060</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170060</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170060</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3085,22 +3085,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8389</t>
+          <t>4828</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4202674</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4202674</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4202674</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3189,7 +3189,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos en Andalucia (tasa de respuesta: 99,84%)</t>
+          <t>Consumo de hipnóticos en Barcelona (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3374,107 +3374,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21544</t>
+          <t>12099</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14005</t>
+          <t>8588</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31546</t>
+          <t>16610</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17850</t>
+          <t>22676</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11624</t>
+          <t>17771</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>26523</t>
+          <t>29049</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>112</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>39394</t>
+          <t>34776</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>28645</t>
+          <t>28951</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>51218</t>
+          <t>42835</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>10,32%</t>
         </is>
       </c>
     </row>
@@ -3487,107 +3487,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>559</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>345139</t>
+          <t>192604</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>335137</t>
+          <t>188093</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>352678</t>
+          <t>196115</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,12%</t>
+          <t>94,09%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>91,4%</t>
+          <t>91,89%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>95,8%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>542</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>281051</t>
+          <t>187720</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>272378</t>
+          <t>181347</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>287277</t>
+          <t>192625</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>94,03%</t>
+          <t>89,22%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>91,13%</t>
+          <t>86,19%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>96,11%</t>
+          <t>91,55%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>626190</t>
+          <t>380323</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>614366</t>
+          <t>372264</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>636939</t>
+          <t>386148</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>94,08%</t>
+          <t>91,62%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,3%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,7%</t>
+          <t>93,03%</t>
         </is>
       </c>
     </row>
@@ -3600,22 +3600,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>599</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>204703</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>204703</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>204703</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3635,22 +3635,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>614</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3670,22 +3670,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>1213</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>415099</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>415099</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>415099</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3717,107 +3717,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16484</t>
+          <t>9966</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10318</t>
+          <t>6033</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26131</t>
+          <t>14456</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23305</t>
+          <t>20825</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16961</t>
+          <t>15772</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31885</t>
+          <t>27712</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>80</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>39789</t>
+          <t>30791</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>30026</t>
+          <t>24546</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>50834</t>
+          <t>38174</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>13,02%</t>
         </is>
       </c>
     </row>
@@ -3830,107 +3830,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>275</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>307563</t>
+          <t>114982</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>297916</t>
+          <t>110492</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>313729</t>
+          <t>118915</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,94%</t>
+          <t>88,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,82%</t>
+          <t>95,17%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>373</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>236776</t>
+          <t>147458</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>228196</t>
+          <t>140571</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>243120</t>
+          <t>152511</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>91,04%</t>
+          <t>87,62%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>87,74%</t>
+          <t>83,53%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>93,48%</t>
+          <t>90,63%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>648</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>544339</t>
+          <t>262440</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>533294</t>
+          <t>255057</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>554102</t>
+          <t>268685</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>93,19%</t>
+          <t>89,5%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>91,3%</t>
+          <t>86,98%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>94,86%</t>
+          <t>91,63%</t>
         </is>
       </c>
     </row>
@@ -3943,22 +3943,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3978,22 +3978,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>428</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>168283</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>168283</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>168283</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4013,22 +4013,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>728</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293231</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293231</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293231</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4060,107 +4060,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14125</t>
+          <t>12419</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3979</t>
+          <t>7693</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34083</t>
+          <t>20732</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>21,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15127</t>
+          <t>15617</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10210</t>
+          <t>10345</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20969</t>
+          <t>22410</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>27,21%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>39,04%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>55</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>29252</t>
+          <t>28036</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>8881</t>
+          <t>20289</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>54971</t>
+          <t>36610</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>23,84%</t>
         </is>
       </c>
     </row>
@@ -4173,107 +4173,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>461299</t>
+          <t>83734</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>441341</t>
+          <t>75421</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>471445</t>
+          <t>88460</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,03%</t>
+          <t>87,08%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,83%</t>
+          <t>78,44%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>105</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>82437</t>
+          <t>41787</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>76595</t>
+          <t>34994</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>87354</t>
+          <t>47059</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>84,5%</t>
+          <t>72,79%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>78,51%</t>
+          <t>60,96%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>89,53%</t>
+          <t>81,98%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>291</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>543736</t>
+          <t>125521</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>518017</t>
+          <t>116947</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>564107</t>
+          <t>133268</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>81,74%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>90,41%</t>
+          <t>76,16%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,45%</t>
+          <t>86,79%</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>346</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4403,107 +4403,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30708</t>
+          <t>15225</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21687</t>
+          <t>10196</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>41386</t>
+          <t>21599</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>33705</t>
+          <t>24225</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12991</t>
+          <t>17062</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>53848</t>
+          <t>32811</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>84</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>64413</t>
+          <t>39450</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>36822</t>
+          <t>30516</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>84997</t>
+          <t>50277</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>15,63%</t>
         </is>
       </c>
     </row>
@@ -4516,107 +4516,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>505447</t>
+          <t>147560</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>494769</t>
+          <t>141186</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>514468</t>
+          <t>152589</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,27%</t>
+          <t>90,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,28%</t>
+          <t>86,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>93,74%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>283</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>602603</t>
+          <t>134683</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>582460</t>
+          <t>126097</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>623317</t>
+          <t>141846</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,7%</t>
+          <t>84,76%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,54%</t>
+          <t>79,35%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>89,26%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>583</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1108049</t>
+          <t>282244</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1087465</t>
+          <t>271417</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1135640</t>
+          <t>291178</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>87,74%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,75%</t>
+          <t>84,37%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>90,51%</t>
         </is>
       </c>
     </row>
@@ -4629,22 +4629,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>162785</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>162785</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>162785</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4664,22 +4664,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>333</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>636308</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>636308</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>636308</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>667</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1172462</t>
+          <t>321694</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1172462</t>
+          <t>321694</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1172462</t>
+          <t>321694</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4746,107 +4746,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6069</t>
+          <t>1963</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2426</t>
+          <t>558</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12815</t>
+          <t>5414</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>58603</t>
+          <t>18124</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>33262</t>
+          <t>12155</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>76271</t>
+          <t>26027</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>36</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>64672</t>
+          <t>20088</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>42299</t>
+          <t>14019</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>85245</t>
+          <t>29133</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>19,67%</t>
         </is>
       </c>
     </row>
@@ -4859,107 +4859,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>204663</t>
+          <t>51746</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>197917</t>
+          <t>48295</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>208306</t>
+          <t>53151</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,12%</t>
+          <t>96,34%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>89,92%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,85%</t>
+          <t>98,96%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>152</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>365186</t>
+          <t>76244</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>347518</t>
+          <t>68341</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>390527</t>
+          <t>82213</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>86,17%</t>
+          <t>80,79%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>82,0%</t>
+          <t>72,42%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>87,12%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>250</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>569849</t>
+          <t>127989</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>549276</t>
+          <t>118944</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>592222</t>
+          <t>134058</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>89,81%</t>
+          <t>86,43%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>86,57%</t>
+          <t>80,33%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,33%</t>
+          <t>90,53%</t>
         </is>
       </c>
     </row>
@@ -4972,22 +4972,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>210732</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>210732</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>210732</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5007,22 +5007,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>184</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>423789</t>
+          <t>94368</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>423789</t>
+          <t>94368</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>423789</t>
+          <t>94368</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>286</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>634521</t>
+          <t>148077</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>634521</t>
+          <t>148077</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>634521</t>
+          <t>148077</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5089,107 +5089,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5842</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>1662</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>20629</t>
+          <t>10030</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>27,44%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>60713</t>
+          <t>9385</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>48803</t>
+          <t>5649</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>72790</t>
+          <t>13704</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>32</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>66556</t>
+          <t>13836</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>54069</t>
+          <t>8836</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>85599</t>
+          <t>20478</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>20,71%</t>
         </is>
       </c>
     </row>
@@ -5202,107 +5202,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>160919</t>
+          <t>32096</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>146132</t>
+          <t>26517</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>165599</t>
+          <t>34885</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>96,5%</t>
+          <t>87,82%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>87,63%</t>
+          <t>72,56%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>95,45%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>129</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>429255</t>
+          <t>52925</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>417178</t>
+          <t>48606</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>441165</t>
+          <t>56661</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>87,61%</t>
+          <t>84,94%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>85,14%</t>
+          <t>78,01%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>90,04%</t>
+          <t>90,93%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>590173</t>
+          <t>85022</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>571130</t>
+          <t>78380</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>602660</t>
+          <t>90022</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>89,87%</t>
+          <t>86,0%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>86,97%</t>
+          <t>79,29%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>91,06%</t>
         </is>
       </c>
     </row>
@@ -5315,22 +5315,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5350,22 +5350,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>154</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>62310</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>62310</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>62310</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5385,22 +5385,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>244</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>98858</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>98858</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>98858</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5432,107 +5432,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>94773</t>
+          <t>56125</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>62509</t>
+          <t>45895</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>119083</t>
+          <t>69052</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>267</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>209304</t>
+          <t>110853</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>147021</t>
+          <t>95159</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>245066</t>
+          <t>126144</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>399</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>304077</t>
+          <t>166977</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>249687</t>
+          <t>148097</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>356712</t>
+          <t>187208</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>13,09%</t>
         </is>
       </c>
     </row>
@@ -5545,107 +5545,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1750</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1985029</t>
+          <t>622721</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1960719</t>
+          <t>609794</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2017293</t>
+          <t>632951</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>91,73%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>94,27%</t>
+          <t>89,83%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,99%</t>
+          <t>93,24%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2614</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1997306</t>
+          <t>640817</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1961544</t>
+          <t>625526</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2059589</t>
+          <t>656511</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>90,51%</t>
+          <t>85,25%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>88,89%</t>
+          <t>83,22%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>93,34%</t>
+          <t>87,34%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4364</t>
+          <t>3085</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>3982336</t>
+          <t>1263539</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3929701</t>
+          <t>1243308</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4036726</t>
+          <t>1282419</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>92,91%</t>
+          <t>88,33%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>91,68%</t>
+          <t>86,91%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>94,17%</t>
+          <t>89,65%</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>1633</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2079802</t>
+          <t>678846</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2079802</t>
+          <t>678846</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2079802</t>
+          <t>678846</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5693,22 +5693,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2962</t>
+          <t>1851</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2206610</t>
+          <t>751670</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2206610</t>
+          <t>751670</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2206610</t>
+          <t>751670</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -5728,22 +5728,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4828</t>
+          <t>3484</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>4286413</t>
+          <t>1430516</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4286413</t>
+          <t>1430516</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4286413</t>
+          <t>1430516</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -8475,7 +8475,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos en Barcelona (tasa de respuesta: 99,77%)</t>
+          <t>Consumo de hipnóticos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8660,107 +8660,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12099</t>
+          <t>6660</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8588</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16610</t>
+          <t>9167</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22676</t>
+          <t>9498</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17771</t>
+          <t>7198</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>29049</t>
+          <t>12959</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>87</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>34776</t>
+          <t>16158</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>28951</t>
+          <t>12670</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>42835</t>
+          <t>19742</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>5,96%</t>
         </is>
       </c>
     </row>
@@ -8773,107 +8773,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>816</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>192604</t>
+          <t>156141</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>188093</t>
+          <t>153634</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>196115</t>
+          <t>158113</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>91,89%</t>
+          <t>94,37%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>95,8%</t>
+          <t>97,12%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>830</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>187720</t>
+          <t>159069</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>181347</t>
+          <t>155608</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>192625</t>
+          <t>161369</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>89,22%</t>
+          <t>94,37%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>86,19%</t>
+          <t>92,31%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>91,55%</t>
+          <t>95,73%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1646</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>380323</t>
+          <t>315210</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>372264</t>
+          <t>311626</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>386148</t>
+          <t>318698</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>91,62%</t>
+          <t>95,12%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>89,68%</t>
+          <t>94,04%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>93,03%</t>
+          <t>96,18%</t>
         </is>
       </c>
     </row>
@@ -8886,22 +8886,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>855</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>204703</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>204703</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>204703</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -8921,22 +8921,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>878</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -8956,22 +8956,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>415099</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>415099</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>415099</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -9008,102 +9008,102 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9966</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6033</t>
+          <t>2784</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14456</t>
+          <t>6452</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20825</t>
+          <t>8723</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15772</t>
+          <t>6515</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27712</t>
+          <t>11797</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>77</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>30791</t>
+          <t>13174</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>24546</t>
+          <t>10393</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>38174</t>
+          <t>16592</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>7,79%</t>
         </is>
       </c>
     </row>
@@ -9116,107 +9116,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>469</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>114982</t>
+          <t>85974</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>110492</t>
+          <t>83973</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>118915</t>
+          <t>87641</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>95,08%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,43%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>95,17%</t>
+          <t>96,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>621</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>147458</t>
+          <t>113945</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>140571</t>
+          <t>110871</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>152511</t>
+          <t>116153</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>87,62%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>83,53%</t>
+          <t>90,38%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>90,63%</t>
+          <t>94,69%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>1090</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>262440</t>
+          <t>199919</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>255057</t>
+          <t>196501</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>268685</t>
+          <t>202700</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>93,82%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>86,98%</t>
+          <t>92,21%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>91,63%</t>
+          <t>95,12%</t>
         </is>
       </c>
     </row>
@@ -9229,22 +9229,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -9264,22 +9264,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>673</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>168283</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>168283</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>168283</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -9299,22 +9299,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>293231</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>293231</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>293231</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -9346,107 +9346,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12419</t>
+          <t>11223</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7693</t>
+          <t>9017</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20732</t>
+          <t>14112</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15617</t>
+          <t>6530</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10345</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>22410</t>
+          <t>8598</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>27,21%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>39,04%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>113</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>28036</t>
+          <t>17752</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>20289</t>
+          <t>14722</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>36610</t>
+          <t>21746</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>10,09%</t>
         </is>
       </c>
     </row>
@@ -9459,107 +9459,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>851</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83734</t>
+          <t>142661</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75421</t>
+          <t>139772</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>88460</t>
+          <t>144867</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,08%</t>
+          <t>92,71%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>78,44%</t>
+          <t>90,83%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,0%</t>
+          <t>94,14%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>325</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>41787</t>
+          <t>55087</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>34994</t>
+          <t>53019</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>47059</t>
+          <t>56954</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>72,79%</t>
+          <t>89,4%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>60,96%</t>
+          <t>86,05%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>81,98%</t>
+          <t>92,43%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>1176</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>125521</t>
+          <t>197749</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>116947</t>
+          <t>193755</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>133268</t>
+          <t>200779</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>81,74%</t>
+          <t>91,76%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>76,16%</t>
+          <t>89,91%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>86,79%</t>
+          <t>93,17%</t>
         </is>
       </c>
     </row>
@@ -9572,22 +9572,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>922</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -9607,22 +9607,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -9642,22 +9642,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -9689,107 +9689,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15225</t>
+          <t>12239</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10196</t>
+          <t>9590</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21599</t>
+          <t>15360</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24225</t>
+          <t>18230</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17062</t>
+          <t>15101</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>32811</t>
+          <t>21807</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>187</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>39450</t>
+          <t>30469</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>30516</t>
+          <t>26514</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>50277</t>
+          <t>35857</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>10,19%</t>
         </is>
       </c>
     </row>
@@ -9802,107 +9802,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>929</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>147560</t>
+          <t>157480</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>141186</t>
+          <t>154359</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>152589</t>
+          <t>160129</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>90,65%</t>
+          <t>92,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>86,73%</t>
+          <t>90,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>94,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>926</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>134683</t>
+          <t>163960</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>126097</t>
+          <t>160383</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>141846</t>
+          <t>167089</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>84,76%</t>
+          <t>89,99%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>79,35%</t>
+          <t>88,03%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>89,26%</t>
+          <t>91,71%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>1855</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>282244</t>
+          <t>321440</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>271417</t>
+          <t>316052</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>291178</t>
+          <t>325395</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>87,74%</t>
+          <t>91,34%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>84,37%</t>
+          <t>89,81%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>90,51%</t>
+          <t>92,47%</t>
         </is>
       </c>
     </row>
@@ -9915,22 +9915,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>162785</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>162785</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>162785</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -9950,22 +9950,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -9985,22 +9985,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>2042</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>321694</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>321694</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>321694</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -10032,107 +10032,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>4544</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>3020</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5414</t>
+          <t>6652</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>18124</t>
+          <t>19044</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>12155</t>
+          <t>15975</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>26027</t>
+          <t>22604</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>147</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>20088</t>
+          <t>23588</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>14019</t>
+          <t>19884</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>29133</t>
+          <t>27528</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>13,77%</t>
         </is>
       </c>
     </row>
@@ -10145,107 +10145,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>425</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>51746</t>
+          <t>69907</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>48295</t>
+          <t>67799</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>53151</t>
+          <t>71431</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>93,9%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>89,92%</t>
+          <t>91,07%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,96%</t>
+          <t>95,94%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>625</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>76244</t>
+          <t>106372</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>68341</t>
+          <t>102812</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>82213</t>
+          <t>109441</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>80,79%</t>
+          <t>84,82%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>72,42%</t>
+          <t>81,98%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>87,12%</t>
+          <t>87,26%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>127989</t>
+          <t>176279</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>118944</t>
+          <t>172339</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>134058</t>
+          <t>179983</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>86,43%</t>
+          <t>88,2%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>80,33%</t>
+          <t>86,23%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>90,53%</t>
+          <t>90,05%</t>
         </is>
       </c>
     </row>
@@ -10258,22 +10258,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -10293,22 +10293,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>94368</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>94368</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>94368</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -10328,22 +10328,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>148077</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>148077</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>148077</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -10375,107 +10375,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4451</t>
+          <t>332</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1662</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10030</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,44%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9385</t>
+          <t>18620</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>5649</t>
+          <t>15477</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>13704</t>
+          <t>22136</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>18,06%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>119</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>13836</t>
+          <t>18952</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>8836</t>
+          <t>15491</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>20478</t>
+          <t>22514</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>20,71%</t>
+          <t>12,63%</t>
         </is>
       </c>
     </row>
@@ -10488,107 +10488,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>267</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>32096</t>
+          <t>55271</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>26517</t>
+          <t>53626</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>34885</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>87,82%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>72,56%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>95,45%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>575</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>52925</t>
+          <t>103981</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>48606</t>
+          <t>100465</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>56661</t>
+          <t>107124</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>84,94%</t>
+          <t>84,81%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>78,01%</t>
+          <t>81,94%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>90,93%</t>
+          <t>87,38%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>842</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>85022</t>
+          <t>159252</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>78380</t>
+          <t>155690</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>90022</t>
+          <t>162713</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>86,0%</t>
+          <t>89,37%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>79,29%</t>
+          <t>87,37%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>91,06%</t>
+          <t>91,31%</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -10636,22 +10636,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>693</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>62310</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>62310</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>62310</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -10671,22 +10671,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>961</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>98858</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>98858</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>98858</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -10718,107 +10718,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>236</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>56125</t>
+          <t>39448</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>45895</t>
+          <t>34470</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>69052</t>
+          <t>45021</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>494</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>110853</t>
+          <t>80645</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>95159</t>
+          <t>73985</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>126144</t>
+          <t>88033</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>730</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>166977</t>
+          <t>120093</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>148097</t>
+          <t>111579</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>187208</t>
+          <t>129054</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>8,66%</t>
         </is>
       </c>
     </row>
@@ -10831,107 +10831,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>3757</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>622721</t>
+          <t>667435</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>609794</t>
+          <t>661862</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>632951</t>
+          <t>672413</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>91,73%</t>
+          <t>94,42%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>89,83%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>93,24%</t>
+          <t>95,12%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1584</t>
+          <t>3902</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>640817</t>
+          <t>702414</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>625526</t>
+          <t>695026</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>656511</t>
+          <t>709074</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>85,25%</t>
+          <t>89,7%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>83,22%</t>
+          <t>88,76%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>87,34%</t>
+          <t>90,55%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3085</t>
+          <t>7659</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1263539</t>
+          <t>1369848</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1243308</t>
+          <t>1360887</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1282419</t>
+          <t>1378362</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>88,33%</t>
+          <t>91,94%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>86,91%</t>
+          <t>91,34%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>89,65%</t>
+          <t>92,51%</t>
         </is>
       </c>
     </row>
@@ -10944,22 +10944,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>678846</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>678846</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>678846</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -10979,22 +10979,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1851</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>751670</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>751670</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>751670</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -11014,22 +11014,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3484</t>
+          <t>8389</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1430516</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1430516</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1430516</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
